--- a/jpcore-r4/feature/kohe_JPPatinet.name/ValueSet-jp-procedure-reason-codes-vs.xlsx
+++ b/jpcore-r4/feature/kohe_JPPatinet.name/ValueSet-jp-procedure-reason-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T09:01:01+00:00</t>
+    <t>2022-06-18T12:08:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe_JPPatinet.name/ValueSet-jp-procedure-reason-codes-vs.xlsx
+++ b/jpcore-r4/feature/kohe_JPPatinet.name/ValueSet-jp-procedure-reason-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T12:08:30+00:00</t>
+    <t>2022-06-18T12:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/kohe_JPPatinet.name/ValueSet-jp-procedure-reason-codes-vs.xlsx
+++ b/jpcore-r4/feature/kohe_JPPatinet.name/ValueSet-jp-procedure-reason-codes-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-18T12:21:03+00:00</t>
+    <t>2022-06-18T12:38:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
